--- a/biology/Histoire de la zoologie et de la botanique/Ludwig_von_Köchel/Ludwig_von_Köchel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludwig_von_Köchel/Ludwig_von_Köchel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ludwig_von_K%C3%B6chel</t>
+          <t>Ludwig_von_Köchel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig Alois Friedrich Ritter von Köchel (14 janvier 1800 – 3 juin 1877)[1] est un écrivain, compositeur, botaniste et éditeur autrichien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Alois Friedrich Ritter von Köchel (14 janvier 1800 – 3 juin 1877) est un écrivain, compositeur, botaniste et éditeur autrichien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ludwig_von_K%C3%B6chel</t>
+          <t>Ludwig_von_Köchel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans la petite ville de Stein en Basse-Autriche[1], il étudia le droit à Vienne et fut de 1827 à 1842 le précepteur des quatre fils de l'archiduc Charles d'Autriche[2].
-Une confortable pension lui permet de mener une carrière de chercheur indépendant ; outre la musique, il s'intéresse à la botanique, la géologie et surtout la minéralogie[2],[3]. Ses travaux dans ces disciplines portent sur l'Afrique du Nord, la péninsule Ibérique, les îles Britanniques, la Laponie et la Russie.
-Passionné de musique et ayant fait le catalogue de l'œuvre de Wolfgang Amadeus Mozart, ses ouvrages concernant la musique viennoise — une histoire de la musique de cour et la biographie de Johann Joseph Fux (1872)[1],[2] — comptent parmi les ouvrages les plus importants du XIXe siècle dans ce domaine. Membre du Mozarteum de Salzbourg, il publia en 1862[2] le Chronologisch-thematisches Verzeichnis sämtlicher Tonwerke Wolfgang Amadé Mozarts (« catalogue thématique et chronologique des œuvres de Wolfgang Amadeus Mozart »), plus connu sous le nom de « catalogue Köchel »[4]. Par exemple, la sérénade « Une petite musique de nuit » (Eine Kleine Nachtmusik) est répertoriée sous le numéro « K. 525[Note 1] » (Köchel 525).
-Ludwig von Köchel est décédé en 1877 à Vienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans la petite ville de Stein en Basse-Autriche, il étudia le droit à Vienne et fut de 1827 à 1842 le précepteur des quatre fils de l'archiduc Charles d'Autriche.
+Une confortable pension lui permet de mener une carrière de chercheur indépendant ; outre la musique, il s'intéresse à la botanique, la géologie et surtout la minéralogie,. Ses travaux dans ces disciplines portent sur l'Afrique du Nord, la péninsule Ibérique, les îles Britanniques, la Laponie et la Russie.
+Passionné de musique et ayant fait le catalogue de l'œuvre de Wolfgang Amadeus Mozart, ses ouvrages concernant la musique viennoise — une histoire de la musique de cour et la biographie de Johann Joseph Fux (1872), — comptent parmi les ouvrages les plus importants du XIXe siècle dans ce domaine. Membre du Mozarteum de Salzbourg, il publia en 1862 le Chronologisch-thematisches Verzeichnis sämtlicher Tonwerke Wolfgang Amadé Mozarts (« catalogue thématique et chronologique des œuvres de Wolfgang Amadeus Mozart »), plus connu sous le nom de « catalogue Köchel ». Par exemple, la sérénade « Une petite musique de nuit » (Eine Kleine Nachtmusik) est répertoriée sous le numéro « K. 525[Note 1] » (Köchel 525).
+Ludwig von Köchel est décédé en 1877 à Vienne.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ludwig_von_K%C3%B6chel</t>
+          <t>Ludwig_von_Köchel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +561,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres musicologiques
-Chronologisch-thematisches Verzeichnis sämticher Tonwerke Wolfgang Amadeus Mozart (Leipzig, 1862 ; rev.2/1905 de P. von Waldersee ; rev.3/1937 de A. Einstein, avec suppl. 1947 ; rev. 6/1964 de S. Giegling, A. Weinmann et G. Sievers [ voir seulement MJb 1971-2, 342-401]
+          <t>Œuvres musicologiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chronologisch-thematisches Verzeichnis sämticher Tonwerke Wolfgang Amadeus Mozart (Leipzig, 1862 ; rev.2/1905 de P. von Waldersee ; rev.3/1937 de A. Einstein, avec suppl. 1947 ; rev. 6/1964 de S. Giegling, A. Weinmann et G. Sievers [ voir seulement MJb 1971-2, 342-401]
 Ueber den Umfang der musikalischen Produktivität W. A Mozarts (Salzburg, 1862)
 Drei und achtzig neuaufgefundene Original-Briefe Ludwig von Beethoven an den Erzherzog Rudolf ( Vienne, 1865)
 Die Pflege der Musik am österreichischen Hofe vom Schlusse des XV. bis zur Mitte des XVIII ? Jahrunderts (imprimé de façon privé, 1866)
 Die kaiserliche Hof-Musikkapelle in Wien von 1543-1867 (Vienne, 1869/R1976)
-J. J. Fux Hofkompositor und Hofkapellmeister der Kaiser Leopold I, Joseph I, und Karl VI, von 1698-1740 (Vienne, 1872)
-Autres œuvres
-Die Mineralien des Herzogthumes Salzburg : mit einer Uebersicht der geologischen Verhältnisse und der Bergbaue dieses Kronlandes, und mit einer geologischen Karte von Salzburg, Vienne, Carl Gerold's Sohn, 1859, 160 p. (lire en ligne).</t>
+J. J. Fux Hofkompositor und Hofkapellmeister der Kaiser Leopold I, Joseph I, und Karl VI, von 1698-1740 (Vienne, 1872)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ludwig_von_Köchel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ludwig_von_K%C3%B6chel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Die Mineralien des Herzogthumes Salzburg : mit einer Uebersicht der geologischen Verhältnisse und der Bergbaue dieses Kronlandes, und mit einer geologischen Karte von Salzburg, Vienne, Carl Gerold's Sohn, 1859, 160 p. (lire en ligne).</t>
         </is>
       </c>
     </row>
